--- a/data/dividends_info_20260126.xlsx
+++ b/data/dividends_info_20260126.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19.89999961853027</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>3.768844293351759</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>98</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.64999961853027</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3651115675163898</v>
+        <v>0.375</v>
       </c>
       <c r="J3" t="n">
         <v>56</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>56.15000152587891</v>
+        <v>56.04999923706055</v>
       </c>
       <c r="I4" t="n">
-        <v>1.15761350371544</v>
+        <v>1.159678873947632</v>
       </c>
       <c r="J4" t="n">
         <v>28</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.779999971389771</v>
+        <v>1.820000052452087</v>
       </c>
       <c r="I5" t="n">
-        <v>3.370786571033133</v>
+        <v>3.296703201692877</v>
       </c>
       <c r="J5" t="n">
         <v>14</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.2599999904632568</v>
+        <v>0.2949999868869781</v>
       </c>
       <c r="I6" t="n">
-        <v>23.0769239233796</v>
+        <v>20.33898395493404</v>
       </c>
       <c r="J6" t="n">
         <v>7</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.017000198364258</v>
+        <v>9.11400032043457</v>
       </c>
       <c r="I7" t="n">
-        <v>2.550737439727721</v>
+        <v>2.523589992468129</v>
       </c>
       <c r="J7" t="n">
         <v>-7</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.705999851226807</v>
+        <v>5.688000202178955</v>
       </c>
       <c r="I8" t="n">
-        <v>2.117069806337756</v>
+        <v>2.123769263470209</v>
       </c>
       <c r="J8" t="n">
         <v>-7</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>24.89999961853027</v>
+        <v>24.95000076293945</v>
       </c>
       <c r="I9" t="n">
-        <v>2.891566309359237</v>
+        <v>2.88577145484293</v>
       </c>
       <c r="J9" t="n">
         <v>-17</v>
@@ -2515,236 +2515,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CASTELLO SGR S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Datrix S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Eni S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Leonardo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Markbass S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Prysmian S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SAIPEM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SAIPEM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>TELECOM ITALIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>